--- a/Stat_Dice_Source.xlsx
+++ b/Stat_Dice_Source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge\Google Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6E951-9EC6-4F0D-A78F-A8D9D191AF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="12105"/>
+    <workbookView xWindow="39735" yWindow="3300" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Creature</t>
   </si>
@@ -156,12 +157,18 @@
   </si>
   <si>
     <t>Mistress Race Troll</t>
+  </si>
+  <si>
+    <t>Trollkin</t>
+  </si>
+  <si>
+    <t>Darkness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,69 +897,69 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T7">
         <v>6</v>
       </c>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -964,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -998,6 +1005,9 @@
       </c>
       <c r="Q8">
         <v>0</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
       </c>
       <c r="Z8" t="s">
         <v>40</v>
@@ -1005,7 +1015,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1020,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1054,9 +1064,6 @@
       </c>
       <c r="Q9">
         <v>0</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
       </c>
       <c r="Z9" t="s">
         <v>40</v>
@@ -1064,13 +1071,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1079,10 +1086,10 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1123,75 +1130,69 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1203,39 +1204,104 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>12</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>60</v>
+      </c>
       <c r="T12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Stat_Dice_Source.xlsx
+++ b/Stat_Dice_Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493467C2-674F-43CC-AA8A-90508E1624B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE51F79-60F3-4D29-84E7-0B4AE4FADF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>Creature</t>
   </si>
@@ -211,15 +211,6 @@
   </si>
   <si>
     <t>Dragonsnail2</t>
-  </si>
-  <si>
-    <t>Dancer in the Darkness</t>
-  </si>
-  <si>
-    <t>3d6x2</t>
-  </si>
-  <si>
-    <t>Earth</t>
   </si>
   <si>
     <t>Krashtkid</t>
@@ -570,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,78 +1128,28 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14">
-        <v>90</v>
-      </c>
-      <c r="M14" t="s">
         <v>64</v>
       </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V14" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="U15" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
